--- a/templates/dataplant/Proteomics_MassSpec_assay.xlsx
+++ b/templates/dataplant/Proteomics_MassSpec_assay.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1200DEE6-F4EA-45AE-86DE-07273DC1C565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10579E0A-22DB-4C6C-BC7E-4DFC4F36D408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY02_ProteomicsMassSpec" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
     <sheet name="PRIDE_PROTEOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>

--- a/templates/dataplant/Proteomics_MassSpec_assay.xlsx
+++ b/templates/dataplant/Proteomics_MassSpec_assay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="128">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -233,6 +233,9 @@
     <t>Parameter [instrument model]</t>
   </si>
   <si>
+    <t xml:space="preserve">Unit   </t>
+  </si>
+  <si>
     <t>Term Source REF (MS:1000031)</t>
   </si>
   <si>
@@ -242,7 +245,7 @@
     <t>Parameter [duration]</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit   </t>
+    <t xml:space="preserve">Unit    </t>
   </si>
   <si>
     <t>Term Source REF (PATO:0001309)</t>
@@ -448,8 +451,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AJ7" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:AJ7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AK7" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AK7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -486,8 +489,9 @@
     <filterColumn colId="33" hiddenButton="1"/>
     <filterColumn colId="34" hiddenButton="1"/>
     <filterColumn colId="35" hiddenButton="1"/>
+    <filterColumn colId="36" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="36">
+  <tableColumns count="37">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Parameter [Experiment Type]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (PRIDE:0000457)" totalsRowFunction="none"/>
@@ -517,13 +521,14 @@
     <tableColumn id="27" name="Term Source REF ()" totalsRowFunction="none"/>
     <tableColumn id="28" name="Term Accession Number ()" totalsRowFunction="none"/>
     <tableColumn id="29" name="Parameter [instrument model]" totalsRowFunction="none"/>
-    <tableColumn id="30" name="Term Source REF (MS:1000031)" totalsRowFunction="none"/>
-    <tableColumn id="31" name="Term Accession Number (MS:1000031)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Parameter [duration]" totalsRowFunction="none"/>
-    <tableColumn id="33" name="Unit   " totalsRowFunction="none"/>
-    <tableColumn id="34" name="Term Source REF (PATO:0001309)" totalsRowFunction="none"/>
-    <tableColumn id="35" name="Term Accession Number (PATO:0001309)" totalsRowFunction="none"/>
-    <tableColumn id="36" name="Output [Raw Data File]" totalsRowFunction="none"/>
+    <tableColumn id="30" name="Unit   " totalsRowFunction="none"/>
+    <tableColumn id="31" name="Term Source REF (MS:1000031)" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Term Accession Number (MS:1000031)" totalsRowFunction="none"/>
+    <tableColumn id="33" name="Parameter [duration]" totalsRowFunction="none"/>
+    <tableColumn id="34" name="Unit    " totalsRowFunction="none"/>
+    <tableColumn id="35" name="Term Source REF (PATO:0001309)" totalsRowFunction="none"/>
+    <tableColumn id="36" name="Term Accession Number (PATO:0001309)" totalsRowFunction="none"/>
+    <tableColumn id="37" name="Output [Raw Data File]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1023,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AK7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1135,665 +1140,686 @@
       <c r="AJ1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" t="s">
+        <v>81</v>
+      </c>
+      <c r="V3" t="s">
+        <v>90</v>
+      </c>
+      <c r="W3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" t="s">
         <v>85</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O4" t="s">
         <v>86</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P4" t="s">
         <v>87</v>
       </c>
-      <c r="O2" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T2" t="s">
-        <v>80</v>
-      </c>
-      <c r="U2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V2" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="Q4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" t="s">
         <v>90</v>
       </c>
-      <c r="X2" t="s">
+      <c r="W4" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="X4" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="Y4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V5" t="s">
         <v>90</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="W5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD5" t="s">
         <v>94</v>
       </c>
-      <c r="AC2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AE5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF5" t="s">
         <v>95</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AG5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH6" t="s">
         <v>96</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="AI6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" t="s">
-        <v>80</v>
-      </c>
-      <c r="V3" t="s">
-        <v>89</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="AK6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" t="s">
+        <v>81</v>
+      </c>
+      <c r="U7" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" t="s">
         <v>90</v>
       </c>
-      <c r="X3" t="s">
+      <c r="W7" t="s">
         <v>91</v>
       </c>
-      <c r="Y3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD7" t="s">
         <v>94</v>
       </c>
-      <c r="AC3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AE7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF7" t="s">
         <v>95</v>
       </c>
-      <c r="AH3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AG7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s">
         <v>96</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" t="s">
-        <v>80</v>
-      </c>
-      <c r="V4" t="s">
-        <v>89</v>
-      </c>
-      <c r="W4" t="s">
-        <v>90</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="AI7" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N5" t="s">
-        <v>99</v>
-      </c>
-      <c r="O5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R5" t="s">
-        <v>80</v>
-      </c>
-      <c r="S5" t="s">
-        <v>80</v>
-      </c>
-      <c r="T5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U5" t="s">
-        <v>80</v>
-      </c>
-      <c r="V5" t="s">
-        <v>89</v>
-      </c>
-      <c r="W5" t="s">
-        <v>90</v>
-      </c>
-      <c r="X5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" t="s">
-        <v>102</v>
-      </c>
-      <c r="P6" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" t="s">
-        <v>80</v>
-      </c>
-      <c r="T6" t="s">
-        <v>80</v>
-      </c>
-      <c r="U6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V6" t="s">
-        <v>89</v>
-      </c>
-      <c r="W6" t="s">
-        <v>90</v>
-      </c>
-      <c r="X6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" t="s">
-        <v>124</v>
-      </c>
-      <c r="O7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" t="s">
-        <v>80</v>
-      </c>
-      <c r="T7" t="s">
-        <v>80</v>
-      </c>
-      <c r="U7" t="s">
-        <v>80</v>
-      </c>
-      <c r="V7" t="s">
-        <v>89</v>
-      </c>
-      <c r="W7" t="s">
-        <v>90</v>
-      </c>
-      <c r="X7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>96</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/Proteomics_MassSpec_assay.xlsx
+++ b/templates/dataplant/Proteomics_MassSpec_assay.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -233,42 +233,51 @@
     <t>Parameter [instrument model]</t>
   </si>
   <si>
+    <t>Term Source REF (MS:1000031)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MS:1000031)</t>
+  </si>
+  <si>
+    <t>Parameter [duration]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unit   </t>
   </si>
   <si>
-    <t>Term Source REF (MS:1000031)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1000031)</t>
-  </si>
-  <si>
-    <t>Parameter [duration]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit    </t>
-  </si>
-  <si>
     <t>Term Source REF (PATO:0001309)</t>
   </si>
   <si>
     <t>Term Accession Number (PATO:0001309)</t>
   </si>
   <si>
-    <t>Output [Raw Data File]</t>
+    <t>Output [Data]</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Top-down proteomics</t>
-  </si>
-  <si>
-    <t>user-specific</t>
+    <t>top-down proteomics</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/ms/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FMS_1003351</t>
   </si>
   <si>
     <t>APEX - Absolute Protein Expression</t>
   </si>
   <si>
+    <t>PRIDE</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PRIDE_0000441</t>
+  </si>
+  <si>
+    <t>run generated from same sample</t>
+  </si>
+  <si>
     <t>L-valine removal</t>
   </si>
   <si>
@@ -284,118 +293,37 @@
     <t>http://purl.obolibrary.org/obo/MOD_00588</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>microliter</t>
   </si>
   <si>
     <t>UO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
+    <t>https://bioregistry.io/UO:0000101</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>count unit</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/UO:0000189</t>
   </si>
   <si>
     <t>TripleTOF 4600</t>
   </si>
   <si>
-    <t>count unit</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000189</t>
+    <t>https://www.ebi.ac.uk/ols4/ontologies/ms/classes/http%253A%252F%252Fpurl.obolibrary.org%252Fobo%252FMS_1002583</t>
   </si>
   <si>
     <t>second</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000010</t>
-  </si>
-  <si>
-    <t>Shotgun proteomics</t>
-  </si>
-  <si>
-    <t>Peptide counting</t>
-  </si>
-  <si>
-    <t>N-(DNA-1',2'-dideoxyribos-1'-ylidene)-L-valine</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MOD_01665</t>
-  </si>
-  <si>
-    <t>L-valine amide</t>
-  </si>
-  <si>
-    <t>CHEBI</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_21418</t>
-  </si>
-  <si>
-    <t>4000 QTRAP</t>
-  </si>
-  <si>
-    <t>Chemical cross-linking coupled with mass spectrometry proteomics</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>N-acetyl-L-valine</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_21565</t>
-  </si>
-  <si>
-    <t>6224 Time-of-Flight LC/MS</t>
-  </si>
-  <si>
-    <t>Affinity purification coupled with mass spectrometry proteomics</t>
-  </si>
-  <si>
-    <t>AQUA</t>
-  </si>
-  <si>
-    <t>3-(carboxamidomethylthio)propanoylated residue</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MOD_00612</t>
-  </si>
-  <si>
-    <t>OMEGA</t>
-  </si>
-  <si>
-    <t>SRM/MRM</t>
-  </si>
-  <si>
-    <t>iTRAQ</t>
-  </si>
-  <si>
-    <t>N-acylated residue</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MOD_00670</t>
-  </si>
-  <si>
-    <t>amaZon X</t>
-  </si>
-  <si>
-    <t>SWATH MS</t>
-  </si>
-  <si>
-    <t>Spectrum count/molecular weight</t>
-  </si>
-  <si>
-    <t>O-acylated residue</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MOD_00671</t>
-  </si>
-  <si>
-    <t>N-carboxy-L-valine</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MOD_01874</t>
-  </si>
-  <si>
-    <t>MAT900XP Trap</t>
+    <t>https://bioregistry.io/UO:0000010</t>
   </si>
 </sst>
 </file>
@@ -451,8 +379,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AK7" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:AK7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AJ2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AJ2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -489,9 +417,8 @@
     <filterColumn colId="33" hiddenButton="1"/>
     <filterColumn colId="34" hiddenButton="1"/>
     <filterColumn colId="35" hiddenButton="1"/>
-    <filterColumn colId="36" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="37">
+  <tableColumns count="36">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Parameter [Experiment Type]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (PRIDE:0000457)" totalsRowFunction="none"/>
@@ -521,14 +448,13 @@
     <tableColumn id="27" name="Term Source REF ()" totalsRowFunction="none"/>
     <tableColumn id="28" name="Term Accession Number ()" totalsRowFunction="none"/>
     <tableColumn id="29" name="Parameter [instrument model]" totalsRowFunction="none"/>
-    <tableColumn id="30" name="Unit   " totalsRowFunction="none"/>
-    <tableColumn id="31" name="Term Source REF (MS:1000031)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Term Accession Number (MS:1000031)" totalsRowFunction="none"/>
-    <tableColumn id="33" name="Parameter [duration]" totalsRowFunction="none"/>
-    <tableColumn id="34" name="Unit    " totalsRowFunction="none"/>
-    <tableColumn id="35" name="Term Source REF (PATO:0001309)" totalsRowFunction="none"/>
-    <tableColumn id="36" name="Term Accession Number (PATO:0001309)" totalsRowFunction="none"/>
-    <tableColumn id="37" name="Output [Raw Data File]" totalsRowFunction="none"/>
+    <tableColumn id="30" name="Term Source REF (MS:1000031)" totalsRowFunction="none"/>
+    <tableColumn id="31" name="Term Accession Number (MS:1000031)" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Parameter [duration]" totalsRowFunction="none"/>
+    <tableColumn id="33" name="Unit   " totalsRowFunction="none"/>
+    <tableColumn id="34" name="Term Source REF (PATO:0001309)" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Term Accession Number (PATO:0001309)" totalsRowFunction="none"/>
+    <tableColumn id="36" name="Output [Data]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1028,10 +954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AJ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1140,686 +1066,115 @@
       <c r="AJ1" t="s">
         <v>79</v>
       </c>
-      <c r="AK1" t="s">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>82</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
       </c>
       <c r="E2" t="s">
         <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="R2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="S2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="T2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="U2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="V2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="W2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="X2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Y2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Z2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="AA2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="AB2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AC2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AD2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AE2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AF2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH2" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>96</v>
-      </c>
       <c r="AI2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AJ2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O3" t="s">
-        <v>103</v>
-      </c>
-      <c r="P3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U3" t="s">
-        <v>81</v>
-      </c>
-      <c r="V3" t="s">
-        <v>90</v>
-      </c>
-      <c r="W3" t="s">
-        <v>91</v>
-      </c>
-      <c r="X3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U4" t="s">
-        <v>81</v>
-      </c>
-      <c r="V4" t="s">
-        <v>90</v>
-      </c>
-      <c r="W4" t="s">
-        <v>91</v>
-      </c>
-      <c r="X4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" t="s">
-        <v>114</v>
-      </c>
-      <c r="N5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5" t="s">
-        <v>81</v>
-      </c>
-      <c r="S5" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5" t="s">
-        <v>81</v>
-      </c>
-      <c r="U5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V5" t="s">
-        <v>90</v>
-      </c>
-      <c r="W5" t="s">
-        <v>91</v>
-      </c>
-      <c r="X5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" t="s">
-        <v>103</v>
-      </c>
-      <c r="P6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R6" t="s">
-        <v>81</v>
-      </c>
-      <c r="S6" t="s">
-        <v>81</v>
-      </c>
-      <c r="T6" t="s">
-        <v>81</v>
-      </c>
-      <c r="U6" t="s">
-        <v>81</v>
-      </c>
-      <c r="V6" t="s">
-        <v>90</v>
-      </c>
-      <c r="W6" t="s">
-        <v>91</v>
-      </c>
-      <c r="X6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>81</v>
-      </c>
-      <c r="R7" t="s">
-        <v>81</v>
-      </c>
-      <c r="S7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T7" t="s">
-        <v>81</v>
-      </c>
-      <c r="U7" t="s">
-        <v>81</v>
-      </c>
-      <c r="V7" t="s">
-        <v>90</v>
-      </c>
-      <c r="W7" t="s">
-        <v>91</v>
-      </c>
-      <c r="X7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/Proteomics_MassSpec_assay.xlsx
+++ b/templates/dataplant/Proteomics_MassSpec_assay.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.8</t>
+    <t>1.1.9</t>
   </si>
   <si>
     <t>Description</t>
@@ -230,7 +230,7 @@
     <t>Term Accession Number ()</t>
   </si>
   <si>
-    <t>Parameter [instrument model]</t>
+    <t>Component [instrument model]</t>
   </si>
   <si>
     <t>Term Source REF (MS:1000031)</t>
@@ -447,7 +447,7 @@
     <tableColumn id="26" name="Unit  " totalsRowFunction="none"/>
     <tableColumn id="27" name="Term Source REF ()" totalsRowFunction="none"/>
     <tableColumn id="28" name="Term Accession Number ()" totalsRowFunction="none"/>
-    <tableColumn id="29" name="Parameter [instrument model]" totalsRowFunction="none"/>
+    <tableColumn id="29" name="Component [instrument model]" totalsRowFunction="none"/>
     <tableColumn id="30" name="Term Source REF (MS:1000031)" totalsRowFunction="none"/>
     <tableColumn id="31" name="Term Accession Number (MS:1000031)" totalsRowFunction="none"/>
     <tableColumn id="32" name="Parameter [duration]" totalsRowFunction="none"/>

--- a/templates/dataplant/Proteomics_MassSpec_assay.xlsx
+++ b/templates/dataplant/Proteomics_MassSpec_assay.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.9</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Description</t>
@@ -224,10 +224,10 @@
     <t xml:space="preserve">Unit  </t>
   </si>
   <si>
-    <t>Term Source REF ()</t>
-  </si>
-  <si>
-    <t>Term Accession Number ()</t>
+    <t>Term Source REF (DPBO:0000114)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000114)</t>
   </si>
   <si>
     <t>Component [instrument model]</t>
@@ -239,16 +239,16 @@
     <t>Term Accession Number (MS:1000031)</t>
   </si>
   <si>
-    <t>Parameter [duration]</t>
+    <t>Parameter [Duration]</t>
   </si>
   <si>
     <t xml:space="preserve">Unit   </t>
   </si>
   <si>
-    <t>Term Source REF (PATO:0001309)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (PATO:0001309)</t>
+    <t>Term Source REF (NCIT:C25330)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C25330)</t>
   </si>
   <si>
     <t>Output [Data]</t>
@@ -445,15 +445,15 @@
     <tableColumn id="24" name="Term Accession Number (AFR:0001577)" totalsRowFunction="none"/>
     <tableColumn id="25" name="Parameter [Number of injections]" totalsRowFunction="none"/>
     <tableColumn id="26" name="Unit  " totalsRowFunction="none"/>
-    <tableColumn id="27" name="Term Source REF ()" totalsRowFunction="none"/>
-    <tableColumn id="28" name="Term Accession Number ()" totalsRowFunction="none"/>
+    <tableColumn id="27" name="Term Source REF (DPBO:0000114)" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Term Accession Number (DPBO:0000114)" totalsRowFunction="none"/>
     <tableColumn id="29" name="Component [instrument model]" totalsRowFunction="none"/>
     <tableColumn id="30" name="Term Source REF (MS:1000031)" totalsRowFunction="none"/>
     <tableColumn id="31" name="Term Accession Number (MS:1000031)" totalsRowFunction="none"/>
-    <tableColumn id="32" name="Parameter [duration]" totalsRowFunction="none"/>
+    <tableColumn id="32" name="Parameter [Duration]" totalsRowFunction="none"/>
     <tableColumn id="33" name="Unit   " totalsRowFunction="none"/>
-    <tableColumn id="34" name="Term Source REF (PATO:0001309)" totalsRowFunction="none"/>
-    <tableColumn id="35" name="Term Accession Number (PATO:0001309)" totalsRowFunction="none"/>
+    <tableColumn id="34" name="Term Source REF (NCIT:C25330)" totalsRowFunction="none"/>
+    <tableColumn id="35" name="Term Accession Number (NCIT:C25330)" totalsRowFunction="none"/>
     <tableColumn id="36" name="Output [Data]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
